--- a/OpsAndMats/M33H.xlsx
+++ b/OpsAndMats/M33H.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="206">
   <si>
     <t>Item</t>
   </si>
@@ -239,9 +239,6 @@
     <t>5144628</t>
   </si>
   <si>
-    <t>5145603</t>
-  </si>
-  <si>
     <t>5262501</t>
   </si>
   <si>
@@ -272,42 +269,6 @@
     <t>5462502</t>
   </si>
   <si>
-    <t>5102701</t>
-  </si>
-  <si>
-    <t>5116601</t>
-  </si>
-  <si>
-    <t>5145601</t>
-  </si>
-  <si>
-    <t>5180603</t>
-  </si>
-  <si>
-    <t>5180701</t>
-  </si>
-  <si>
-    <t>5033701</t>
-  </si>
-  <si>
-    <t>5404701</t>
-  </si>
-  <si>
-    <t>5033602</t>
-  </si>
-  <si>
-    <t>5266701</t>
-  </si>
-  <si>
-    <t>5262709</t>
-  </si>
-  <si>
-    <t>5145702</t>
-  </si>
-  <si>
-    <t>5462701</t>
-  </si>
-  <si>
     <t>2547401</t>
   </si>
   <si>
@@ -317,15 +278,6 @@
     <t>8028312</t>
   </si>
   <si>
-    <t>3860028-1</t>
-  </si>
-  <si>
-    <t>5189201</t>
-  </si>
-  <si>
-    <t>5189301</t>
-  </si>
-  <si>
     <t>5131003</t>
   </si>
   <si>
@@ -365,10 +317,16 @@
     <t>2231706</t>
   </si>
   <si>
-    <t>9712001</t>
-  </si>
-  <si>
-    <t>9712002</t>
+    <t>5032601</t>
+  </si>
+  <si>
+    <t>1402408</t>
+  </si>
+  <si>
+    <t>1527302</t>
+  </si>
+  <si>
+    <t>1577301</t>
   </si>
   <si>
     <t>gate valve, 3/4"</t>
@@ -413,9 +371,6 @@
     <t>3/4" PTC PEX x 1/2" MPT</t>
   </si>
   <si>
-    <t>1"MPT x 1"hose insert, (barbed) PVC, 90°</t>
-  </si>
-  <si>
     <t>brass nipple, 3/4"MPT, close type</t>
   </si>
   <si>
@@ -446,42 +401,6 @@
     <t>ball valve, 3-way, 3/4"FPT</t>
   </si>
   <si>
-    <t>elbow, brass, 90°, 1-1/2",FPT x FPT</t>
-  </si>
-  <si>
-    <t>street elbow, brass, 1", 45°</t>
-  </si>
-  <si>
-    <t>1"MPT x 1" barbed hose, PVC</t>
-  </si>
-  <si>
-    <t>1"ID x #2 BRD black, rubber hose</t>
-  </si>
-  <si>
-    <t>1-1/2"ID x #2 BRD black, rubber hose</t>
-  </si>
-  <si>
-    <t>bushing, 1-1/2"MPT x 1"FPT, Sch.40 PVC</t>
-  </si>
-  <si>
-    <t>1-1/2"FPT, tee, PVC, Sch.80</t>
-  </si>
-  <si>
-    <t>bushing, 1"MPT x, 3/4"FPT, Sch.40 PVC</t>
-  </si>
-  <si>
-    <t>1-1/2"MPT, PVC nipple, close type</t>
-  </si>
-  <si>
-    <t>brass nipple, 1-1/2" x 5"lg.</t>
-  </si>
-  <si>
-    <t>1-1/2"MPT x 1-1/2" barbed hose, PVC, 90°</t>
-  </si>
-  <si>
-    <t>ball valve, 1-1/2"FPT, brass</t>
-  </si>
-  <si>
     <t>Washer, Fender, 3/8, Pl. Stl.</t>
   </si>
   <si>
@@ -491,15 +410,6 @@
     <t>BULKHEAD ADAPTER</t>
   </si>
   <si>
-    <t>U-Bolt, Zn Pl, 3/8-16, 2 3/8" C-C</t>
-  </si>
-  <si>
-    <t>Hose Clamp, Worm Drive, 1 7/16" - 2"</t>
-  </si>
-  <si>
-    <t>Hose Clamp, Worm Drive, 1 7/16" - 1 1/2"</t>
-  </si>
-  <si>
     <t>filter element, (20 micron)</t>
   </si>
   <si>
@@ -539,10 +449,16 @@
     <t>M.Scr, Bnd Hd., 10-32, 3/4, Pl. Stl.</t>
   </si>
   <si>
-    <t>Pipe Sealant, Paste, non-hardening, TFE</t>
-  </si>
-  <si>
-    <t>Pipe Sealant, Tape, TFE, White</t>
+    <t>brass bushing, 1"MPT x 3/4"FPT</t>
+  </si>
+  <si>
+    <t>HHCS, 5/16-18, 1, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, AN, 5/16, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, 5/16, St. Stl.</t>
   </si>
   <si>
     <t>Unit</t>
@@ -558,9 +474,6 @@
   </si>
   <si>
     <t>IN</t>
-  </si>
-  <si>
-    <t>ml</t>
   </si>
   <si>
     <t>Use Fixed Schedule</t>
@@ -1077,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ66"/>
+  <dimension ref="A1:AQ52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1147,7 @@
         <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1252,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1317,7 +1230,7 @@
         <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1335,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U3" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1400,7 +1313,7 @@
         <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1418,10 +1331,10 @@
         <v>0.0625</v>
       </c>
       <c r="T4" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U4" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1483,7 +1396,7 @@
         <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1501,10 +1414,10 @@
         <v>22</v>
       </c>
       <c r="T5" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U5" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1566,7 +1479,7 @@
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1584,10 +1497,10 @@
         <v>0.0625</v>
       </c>
       <c r="T6" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U6" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1649,7 +1562,7 @@
         <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1667,10 +1580,10 @@
         <v>7.5</v>
       </c>
       <c r="T7" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U7" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1732,7 +1645,7 @@
         <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1750,10 +1663,10 @@
         <v>0.0625</v>
       </c>
       <c r="T8" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1815,7 +1728,7 @@
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1833,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U9" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1898,7 +1811,7 @@
         <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1913,13 +1826,13 @@
         <v>8</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U10" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1981,7 +1894,7 @@
         <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1999,10 +1912,10 @@
         <v>5</v>
       </c>
       <c r="T11" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U11" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2064,7 +1977,7 @@
         <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -2082,10 +1995,10 @@
         <v>48</v>
       </c>
       <c r="T12" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U12" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2147,7 +2060,7 @@
         <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2165,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U13" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2230,7 +2143,7 @@
         <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2248,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U14" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2313,7 +2226,7 @@
         <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -2331,10 +2244,10 @@
         <v>7</v>
       </c>
       <c r="T15" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U15" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2396,7 +2309,7 @@
         <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2414,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U16" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2479,7 +2392,7 @@
         <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2497,10 +2410,10 @@
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U17" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2562,7 +2475,7 @@
         <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -2580,10 +2493,10 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U18" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2645,7 +2558,7 @@
         <v>74</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K19">
         <v>11</v>
@@ -2660,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U19" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2728,7 +2641,7 @@
         <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="K20">
         <v>12</v>
@@ -2746,10 +2659,10 @@
         <v>2</v>
       </c>
       <c r="T20" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U20" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2811,7 +2724,7 @@
         <v>76</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K21">
         <v>13</v>
@@ -2826,13 +2739,13 @@
         <v>8</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U21" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2894,7 +2807,7 @@
         <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="K22">
         <v>14</v>
@@ -2912,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U22" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2977,7 +2890,7 @@
         <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="K23">
         <v>15</v>
@@ -2995,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U23" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3057,10 +2970,10 @@
         <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>16</v>
@@ -3078,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U24" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3140,10 +3053,10 @@
         <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="K25">
         <v>17</v>
@@ -3161,10 +3074,10 @@
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U25" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3226,7 +3139,7 @@
         <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="K26">
         <v>18</v>
@@ -3241,13 +3154,13 @@
         <v>8</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U26" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3309,7 +3222,7 @@
         <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3324,13 +3237,13 @@
         <v>8</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U27" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3392,7 +3305,7 @@
         <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="K28">
         <v>20</v>
@@ -3410,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U28" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3475,7 +3388,7 @@
         <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="K29">
         <v>21</v>
@@ -3493,10 +3406,10 @@
         <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U29" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3555,10 +3468,10 @@
         <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>22</v>
@@ -3576,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U30" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3638,10 +3551,10 @@
         <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>23</v>
@@ -3659,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U31" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3721,10 +3634,10 @@
         <v>59</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K32">
         <v>24</v>
@@ -3739,13 +3652,13 @@
         <v>8</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T32" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U32" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3804,10 +3717,10 @@
         <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="K33">
         <v>25</v>
@@ -3822,13 +3735,13 @@
         <v>8</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U33" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3887,10 +3800,10 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>26</v>
@@ -3905,13 +3818,13 @@
         <v>8</v>
       </c>
       <c r="S34">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U34" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3970,10 +3883,10 @@
         <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="K35">
         <v>27</v>
@@ -3988,13 +3901,13 @@
         <v>8</v>
       </c>
       <c r="S35">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U35" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4053,10 +3966,10 @@
         <v>59</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="K36">
         <v>28</v>
@@ -4074,10 +3987,10 @@
         <v>2</v>
       </c>
       <c r="T36" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U36" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4136,10 +4049,10 @@
         <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="K37">
         <v>29</v>
@@ -4154,13 +4067,13 @@
         <v>8</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T37" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U37" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4219,10 +4132,10 @@
         <v>59</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="K38">
         <v>30</v>
@@ -4237,13 +4150,13 @@
         <v>8</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T38" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U38" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4302,10 +4215,10 @@
         <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K39">
         <v>31</v>
@@ -4320,13 +4233,13 @@
         <v>8</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T39" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U39" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4385,10 +4298,10 @@
         <v>59</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -4403,13 +4316,13 @@
         <v>8</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T40" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U40" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4468,10 +4381,10 @@
         <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="K41">
         <v>33</v>
@@ -4486,13 +4399,13 @@
         <v>8</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T41" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U41" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4551,10 +4464,10 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J42" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="K42">
         <v>34</v>
@@ -4569,13 +4482,13 @@
         <v>8</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U42" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4634,10 +4547,10 @@
         <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="K43">
         <v>35</v>
@@ -4652,13 +4565,13 @@
         <v>8</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U43" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4717,10 +4630,10 @@
         <v>59</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="K44">
         <v>36</v>
@@ -4735,13 +4648,13 @@
         <v>8</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U44" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4800,10 +4713,10 @@
         <v>59</v>
       </c>
       <c r="I45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J45" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K45">
         <v>37</v>
@@ -4818,13 +4731,13 @@
         <v>8</v>
       </c>
       <c r="S45">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U45" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4883,10 +4796,10 @@
         <v>59</v>
       </c>
       <c r="I46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J46" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K46">
         <v>38</v>
@@ -4901,13 +4814,13 @@
         <v>8</v>
       </c>
       <c r="S46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U46" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4966,10 +4879,10 @@
         <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="K47">
         <v>39</v>
@@ -4984,13 +4897,13 @@
         <v>8</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T47" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U47" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -5052,7 +4965,7 @@
         <v>99</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K48">
         <v>40</v>
@@ -5067,13 +4980,13 @@
         <v>8</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T48" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U48" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -5135,7 +5048,7 @@
         <v>100</v>
       </c>
       <c r="J49" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="K49">
         <v>41</v>
@@ -5150,13 +5063,13 @@
         <v>8</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U49" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5218,7 +5131,7 @@
         <v>101</v>
       </c>
       <c r="J50" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K50">
         <v>42</v>
@@ -5233,13 +5146,13 @@
         <v>8</v>
       </c>
       <c r="S50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U50" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5301,7 +5214,7 @@
         <v>102</v>
       </c>
       <c r="J51" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K51">
         <v>43</v>
@@ -5319,10 +5232,10 @@
         <v>2</v>
       </c>
       <c r="T51" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U51" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5384,7 +5297,7 @@
         <v>103</v>
       </c>
       <c r="J52" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="K52">
         <v>44</v>
@@ -5402,10 +5315,10 @@
         <v>2</v>
       </c>
       <c r="T52" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="U52" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5444,1168 +5357,6 @@
         <v>0</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:43">
-      <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" t="s">
-        <v>59</v>
-      </c>
-      <c r="I53" t="s">
-        <v>104</v>
-      </c>
-      <c r="J53" t="s">
-        <v>162</v>
-      </c>
-      <c r="K53">
-        <v>45</v>
-      </c>
-      <c r="L53">
-        <v>45</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="R53" t="s">
-        <v>8</v>
-      </c>
-      <c r="S53">
-        <v>6</v>
-      </c>
-      <c r="T53" t="s">
-        <v>176</v>
-      </c>
-      <c r="U53" t="s">
-        <v>177</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:43">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" t="s">
-        <v>59</v>
-      </c>
-      <c r="I54" t="s">
-        <v>105</v>
-      </c>
-      <c r="J54" t="s">
-        <v>163</v>
-      </c>
-      <c r="K54">
-        <v>46</v>
-      </c>
-      <c r="L54">
-        <v>46</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54">
-        <v>12</v>
-      </c>
-      <c r="T54" t="s">
-        <v>176</v>
-      </c>
-      <c r="U54" t="s">
-        <v>177</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>1</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:43">
-      <c r="A55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" t="s">
-        <v>59</v>
-      </c>
-      <c r="I55" t="s">
-        <v>106</v>
-      </c>
-      <c r="J55" t="s">
-        <v>164</v>
-      </c>
-      <c r="K55">
-        <v>47</v>
-      </c>
-      <c r="L55">
-        <v>47</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="R55" t="s">
-        <v>8</v>
-      </c>
-      <c r="S55">
-        <v>6</v>
-      </c>
-      <c r="T55" t="s">
-        <v>176</v>
-      </c>
-      <c r="U55" t="s">
-        <v>177</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>1</v>
-      </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:43">
-      <c r="A56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
-      <c r="G56" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" t="s">
-        <v>107</v>
-      </c>
-      <c r="J56" t="s">
-        <v>165</v>
-      </c>
-      <c r="K56">
-        <v>48</v>
-      </c>
-      <c r="L56">
-        <v>48</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="R56" t="s">
-        <v>8</v>
-      </c>
-      <c r="S56">
-        <v>6</v>
-      </c>
-      <c r="T56" t="s">
-        <v>176</v>
-      </c>
-      <c r="U56" t="s">
-        <v>177</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>1</v>
-      </c>
-      <c r="AF56">
-        <v>1</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <v>0</v>
-      </c>
-      <c r="AN56">
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:43">
-      <c r="A57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57">
-        <v>10</v>
-      </c>
-      <c r="G57" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" t="s">
-        <v>59</v>
-      </c>
-      <c r="I57" t="s">
-        <v>108</v>
-      </c>
-      <c r="J57" t="s">
-        <v>166</v>
-      </c>
-      <c r="K57">
-        <v>49</v>
-      </c>
-      <c r="L57">
-        <v>49</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="R57" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57">
-        <v>12</v>
-      </c>
-      <c r="T57" t="s">
-        <v>176</v>
-      </c>
-      <c r="U57" t="s">
-        <v>177</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>1</v>
-      </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AK57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
-      <c r="AM57">
-        <v>0</v>
-      </c>
-      <c r="AN57">
-        <v>0</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <v>0</v>
-      </c>
-      <c r="AQ57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:43">
-      <c r="A58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H58" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" t="s">
-        <v>109</v>
-      </c>
-      <c r="J58" t="s">
-        <v>167</v>
-      </c>
-      <c r="K58">
-        <v>50</v>
-      </c>
-      <c r="L58">
-        <v>50</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="R58" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58">
-        <v>8</v>
-      </c>
-      <c r="T58" t="s">
-        <v>176</v>
-      </c>
-      <c r="U58" t="s">
-        <v>177</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>1</v>
-      </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AK58">
-        <v>0</v>
-      </c>
-      <c r="AL58">
-        <v>0</v>
-      </c>
-      <c r="AM58">
-        <v>0</v>
-      </c>
-      <c r="AN58">
-        <v>0</v>
-      </c>
-      <c r="AO58">
-        <v>0</v>
-      </c>
-      <c r="AP58">
-        <v>0</v>
-      </c>
-      <c r="AQ58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:43">
-      <c r="A59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
-      <c r="G59" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" t="s">
-        <v>59</v>
-      </c>
-      <c r="I59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J59" t="s">
-        <v>168</v>
-      </c>
-      <c r="K59">
-        <v>51</v>
-      </c>
-      <c r="L59">
-        <v>51</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="R59" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59">
-        <v>8</v>
-      </c>
-      <c r="T59" t="s">
-        <v>176</v>
-      </c>
-      <c r="U59" t="s">
-        <v>177</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>1</v>
-      </c>
-      <c r="AF59">
-        <v>1</v>
-      </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>0</v>
-      </c>
-      <c r="AN59">
-        <v>0</v>
-      </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
-      </c>
-      <c r="AQ59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:43">
-      <c r="A60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
-      <c r="G60" t="s">
-        <v>55</v>
-      </c>
-      <c r="H60" t="s">
-        <v>59</v>
-      </c>
-      <c r="I60" t="s">
-        <v>111</v>
-      </c>
-      <c r="J60" t="s">
-        <v>169</v>
-      </c>
-      <c r="K60">
-        <v>52</v>
-      </c>
-      <c r="L60">
-        <v>52</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="R60" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60">
-        <v>4</v>
-      </c>
-      <c r="T60" t="s">
-        <v>176</v>
-      </c>
-      <c r="U60" t="s">
-        <v>177</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>1</v>
-      </c>
-      <c r="AF60">
-        <v>1</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AK60">
-        <v>0</v>
-      </c>
-      <c r="AL60">
-        <v>0</v>
-      </c>
-      <c r="AM60">
-        <v>0</v>
-      </c>
-      <c r="AN60">
-        <v>0</v>
-      </c>
-      <c r="AO60">
-        <v>0</v>
-      </c>
-      <c r="AP60">
-        <v>0</v>
-      </c>
-      <c r="AQ60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:43">
-      <c r="A61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>55</v>
-      </c>
-      <c r="H61" t="s">
-        <v>59</v>
-      </c>
-      <c r="I61" t="s">
-        <v>112</v>
-      </c>
-      <c r="J61" t="s">
-        <v>170</v>
-      </c>
-      <c r="K61">
-        <v>53</v>
-      </c>
-      <c r="L61">
-        <v>53</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="R61" t="s">
-        <v>8</v>
-      </c>
-      <c r="S61">
-        <v>3</v>
-      </c>
-      <c r="T61" t="s">
-        <v>176</v>
-      </c>
-      <c r="U61" t="s">
-        <v>177</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>1</v>
-      </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AM61">
-        <v>0</v>
-      </c>
-      <c r="AN61">
-        <v>0</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
-      </c>
-      <c r="AP61">
-        <v>0</v>
-      </c>
-      <c r="AQ61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:43">
-      <c r="A62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" t="s">
-        <v>113</v>
-      </c>
-      <c r="J62" t="s">
-        <v>171</v>
-      </c>
-      <c r="K62">
-        <v>54</v>
-      </c>
-      <c r="L62">
-        <v>54</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62">
-        <v>3</v>
-      </c>
-      <c r="T62" t="s">
-        <v>176</v>
-      </c>
-      <c r="U62" t="s">
-        <v>177</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>1</v>
-      </c>
-      <c r="AF62">
-        <v>1</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AM62">
-        <v>0</v>
-      </c>
-      <c r="AN62">
-        <v>0</v>
-      </c>
-      <c r="AO62">
-        <v>0</v>
-      </c>
-      <c r="AP62">
-        <v>0</v>
-      </c>
-      <c r="AQ62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:43">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
-        <v>55</v>
-      </c>
-      <c r="H63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I63" t="s">
-        <v>114</v>
-      </c>
-      <c r="J63" t="s">
-        <v>172</v>
-      </c>
-      <c r="K63">
-        <v>55</v>
-      </c>
-      <c r="L63">
-        <v>55</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="R63" t="s">
-        <v>8</v>
-      </c>
-      <c r="S63">
-        <v>6</v>
-      </c>
-      <c r="T63" t="s">
-        <v>176</v>
-      </c>
-      <c r="U63" t="s">
-        <v>177</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>1</v>
-      </c>
-      <c r="AF63">
-        <v>1</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>0</v>
-      </c>
-      <c r="AM63">
-        <v>0</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
-      <c r="AO63">
-        <v>0</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:43">
-      <c r="A64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="G64" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" t="s">
-        <v>59</v>
-      </c>
-      <c r="I64" t="s">
-        <v>115</v>
-      </c>
-      <c r="J64" t="s">
-        <v>173</v>
-      </c>
-      <c r="K64">
-        <v>56</v>
-      </c>
-      <c r="L64">
-        <v>56</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="R64" t="s">
-        <v>8</v>
-      </c>
-      <c r="S64">
-        <v>3</v>
-      </c>
-      <c r="T64" t="s">
-        <v>176</v>
-      </c>
-      <c r="U64" t="s">
-        <v>177</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>1</v>
-      </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AK64">
-        <v>0</v>
-      </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
-      <c r="AM64">
-        <v>0</v>
-      </c>
-      <c r="AN64">
-        <v>0</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>0</v>
-      </c>
-      <c r="AQ64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:43">
-      <c r="A65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65">
-        <v>10</v>
-      </c>
-      <c r="G65" t="s">
-        <v>55</v>
-      </c>
-      <c r="H65" t="s">
-        <v>59</v>
-      </c>
-      <c r="I65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J65" t="s">
-        <v>174</v>
-      </c>
-      <c r="K65">
-        <v>57</v>
-      </c>
-      <c r="L65">
-        <v>57</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="R65" t="s">
-        <v>8</v>
-      </c>
-      <c r="S65">
-        <v>10</v>
-      </c>
-      <c r="T65" t="s">
-        <v>176</v>
-      </c>
-      <c r="U65" t="s">
-        <v>181</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AF65">
-        <v>1</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-      <c r="AK65">
-        <v>0</v>
-      </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
-      <c r="AM65">
-        <v>0</v>
-      </c>
-      <c r="AN65">
-        <v>0</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
-      </c>
-      <c r="AP65">
-        <v>0</v>
-      </c>
-      <c r="AQ65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:43">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" t="s">
-        <v>59</v>
-      </c>
-      <c r="I66" t="s">
-        <v>117</v>
-      </c>
-      <c r="J66" t="s">
-        <v>175</v>
-      </c>
-      <c r="K66">
-        <v>58</v>
-      </c>
-      <c r="L66">
-        <v>58</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66">
-        <v>24</v>
-      </c>
-      <c r="T66" t="s">
-        <v>176</v>
-      </c>
-      <c r="U66" t="s">
-        <v>180</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>1</v>
-      </c>
-      <c r="AF66">
-        <v>1</v>
-      </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-      <c r="AK66">
-        <v>0</v>
-      </c>
-      <c r="AL66">
-        <v>0</v>
-      </c>
-      <c r="AM66">
-        <v>0</v>
-      </c>
-      <c r="AN66">
-        <v>0</v>
-      </c>
-      <c r="AO66">
-        <v>0</v>
-      </c>
-      <c r="AP66">
-        <v>0</v>
-      </c>
-      <c r="AQ66">
         <v>0</v>
       </c>
     </row>
@@ -6648,61 +5399,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -6711,64 +5462,64 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -6791,19 +5542,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -6836,28 +5587,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN2" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -6892,28 +5643,28 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -6946,28 +5697,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG3" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="s">
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK3" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN3" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -7011,19 +5762,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -7056,28 +5807,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG4" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="s">
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK4" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN4" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -7112,28 +5863,28 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -7166,28 +5917,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG5" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="s">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK5" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -7222,28 +5973,28 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="H6" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -7276,28 +6027,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN6" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -7341,19 +6092,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -7386,28 +6137,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -7451,19 +6202,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -7496,28 +6247,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG8" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="s">
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK8" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN8" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -7552,28 +6303,28 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="H9" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -7606,28 +6357,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG9" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="s">
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK9" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN9" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -7662,28 +6413,28 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -7716,28 +6467,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG10" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK10" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN10" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -7781,19 +6532,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -7826,28 +6577,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG11" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK11" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN11" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -7891,19 +6642,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -7936,28 +6687,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG12" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK12" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN12" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -7992,28 +6743,28 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="H13" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -8046,28 +6797,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG13" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK13" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN13" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -8111,19 +6862,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -8156,28 +6907,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG14" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK14" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN14" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -8212,28 +6963,28 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="H15" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -8266,28 +7017,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG15" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK15" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN15" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -8331,19 +7082,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -8376,28 +7127,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK16" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN16" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -8441,19 +7192,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -8486,28 +7237,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AK17" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="AO17">
         <v>0</v>
